--- a/01_requirements/第三反復_非機能要求一覧.xlsx
+++ b/01_requirements/第三反復_非機能要求一覧.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB907545-F9CF-434A-96F2-66C5C09273D5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861FD378-8493-4E74-92A5-25B848F94CE4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2535" yWindow="1005" windowWidth="17910" windowHeight="10005" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="735" windowWidth="15090" windowHeight="10005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="非機能要求" sheetId="5" r:id="rId1"/>
@@ -1128,7 +1128,7 @@
   <dimension ref="B1:F21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1709,8 +1709,8 @@
   </sheetPr>
   <dimension ref="B1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2279,15 +2279,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="8" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2a556f6f1c373661d5b840766e21bd71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="922e6d2db1fa74b296b39bb733b75624" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2457,6 +2448,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
   <ds:schemaRefs>
@@ -2474,14 +2474,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F1C1027-CEFA-4AD3-8FFD-CE8AA26AEFED}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2497,4 +2489,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>